--- a/db/sources/system_permissions.xlsx
+++ b/db/sources/system_permissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wrburgess/Projects/aaa/kc-tennis/db/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43470F3-3B1D-1448-A6CC-D947C3ED7F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA59E7-9185-384D-A5AE-A4A76F120E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="660" windowWidth="37160" windowHeight="20780" xr2:uid="{A7924D65-00DE-2544-9F97-E11FDD26EDD2}"/>
   </bookViews>
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6930FAF-2397-5948-B560-84F685BD8951}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
